--- a/ofc/estimates/siri dai/panchakanya mandir.xlsx
+++ b/ofc/estimates/siri dai/panchakanya mandir.xlsx
@@ -19,7 +19,7 @@
     <sheet name="ग्रावेल" sheetId="15" state="hidden" r:id="rId5"/>
     <sheet name="with dhalaan" sheetId="19" state="hidden" r:id="rId6"/>
     <sheet name="siri dai" sheetId="17" r:id="rId7"/>
-    <sheet name="300k" sheetId="20" r:id="rId8"/>
+    <sheet name="200k" sheetId="20" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -48,11 +48,11 @@
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'300k'!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'200k'!$A$1:$K$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Estimate!$A$1:$K$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">final!$A$1:$K$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'siri dai'!$A$1:$K$47</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'300k'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'200k'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">final!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'siri dai'!$1:$8</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="102">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -377,6 +377,12 @@
   <si>
     <t xml:space="preserve">dfn;fdfg pknAw u/L %) dL=dL= df]6f] x]eL 8o"6L OG6/nls+u s+lqm6Ans %) dL=dL=df]6fOsf] qm;/ 8:6 dfyL /fvL la5ofpg]] sfd k'/f </t>
   </si>
+  <si>
+    <t xml:space="preserve">Project:- पन्चकन्या मन्दिर </t>
+  </si>
+  <si>
+    <t>Date:2081/09/29</t>
+  </si>
 </sst>
 </file>
 
@@ -593,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -850,17 +856,19 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -875,30 +883,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,6 +911,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -930,6 +936,7 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1647,38 +1654,38 @@
       <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -3327,11 +3334,11 @@
       <c r="B73" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="113">
+      <c r="C73" s="111">
         <f>J71</f>
         <v>1194331.7948368895</v>
       </c>
-      <c r="D73" s="114"/>
+      <c r="D73" s="112"/>
       <c r="E73" s="16">
         <v>100</v>
       </c>
@@ -3346,21 +3353,21 @@
       <c r="B74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="120">
+      <c r="C74" s="113">
         <v>1000000</v>
       </c>
-      <c r="D74" s="121"/>
+      <c r="D74" s="114"/>
       <c r="E74" s="16"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="120">
+      <c r="C75" s="113">
         <f>C74-C77-C78</f>
         <v>950000</v>
       </c>
-      <c r="D75" s="121"/>
+      <c r="D75" s="114"/>
       <c r="E75" s="16">
         <f>C75/C73*100</f>
         <v>79.542385466656867</v>
@@ -3370,11 +3377,11 @@
       <c r="B76" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="119">
+      <c r="C76" s="110">
         <f>C73-C75</f>
         <v>244331.79483688949</v>
       </c>
-      <c r="D76" s="119"/>
+      <c r="D76" s="110"/>
       <c r="E76" s="16">
         <f>100-E75</f>
         <v>20.457614533343133</v>
@@ -3384,11 +3391,11 @@
       <c r="B77" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="113">
+      <c r="C77" s="111">
         <f>C74*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D77" s="114"/>
+      <c r="D77" s="112"/>
       <c r="E77" s="16">
         <v>3</v>
       </c>
@@ -3397,32 +3404,32 @@
       <c r="B78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="113">
+      <c r="C78" s="111">
         <f>C74*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D78" s="114"/>
+      <c r="D78" s="112"/>
       <c r="E78" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,38 +3543,38 @@
       <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -4732,11 +4739,11 @@
       <c r="B55" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="113">
+      <c r="C55" s="111">
         <f>J53</f>
         <v>563311.92829411826</v>
       </c>
-      <c r="D55" s="114"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="16">
         <v>100</v>
       </c>
@@ -4752,10 +4759,10 @@
       <c r="B56" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="120">
+      <c r="C56" s="113">
         <v>500000</v>
       </c>
-      <c r="D56" s="121"/>
+      <c r="D56" s="114"/>
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -4763,11 +4770,11 @@
       <c r="B57" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="120">
+      <c r="C57" s="113">
         <f>C56-C59-C60</f>
         <v>475000</v>
       </c>
-      <c r="D57" s="121"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="16">
         <f>C57/C55*100</f>
         <v>84.322730647377924</v>
@@ -4778,11 +4785,11 @@
       <c r="B58" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="119">
+      <c r="C58" s="110">
         <f>C55-C57</f>
         <v>88311.928294118261</v>
       </c>
-      <c r="D58" s="119"/>
+      <c r="D58" s="110"/>
       <c r="E58" s="16">
         <f>100-E57</f>
         <v>15.677269352622076</v>
@@ -4793,11 +4800,11 @@
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="113">
+      <c r="C59" s="111">
         <f>C56*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D59" s="114"/>
+      <c r="D59" s="112"/>
       <c r="E59" s="16">
         <v>3</v>
       </c>
@@ -4807,24 +4814,17 @@
       <c r="B60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="113">
+      <c r="C60" s="111">
         <f>C56*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D60" s="114"/>
+      <c r="D60" s="112"/>
       <c r="E60" s="16">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A7:F7"/>
@@ -4833,6 +4833,13 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4873,34 +4880,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="117" t="s">
@@ -4933,30 +4940,30 @@
       <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="122" t="e">
+      <c r="C6" s="129" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="123"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4964,11 +4971,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="122" t="e">
+      <c r="J6" s="129" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="123"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
@@ -4977,77 +4984,77 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="I7" s="130" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="I7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="110" t="str">
+      <c r="A8" s="119" t="str">
         <f>Estimate!A6</f>
         <v>Project:- बेन्डोल हाईट सडक निर्माण</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="I8" s="131" t="s">
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="I8" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="str">
+      <c r="A9" s="127" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="I9" s="131" t="s">
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="I9" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="127" t="s">
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="123" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
@@ -5066,8 +5073,8 @@
       <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="127"/>
-      <c r="K12" s="128"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
@@ -5229,6 +5236,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -5242,13 +5256,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5360,21 +5367,21 @@
       <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
@@ -6632,21 +6639,21 @@
       <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
@@ -7931,13 +7938,6 @@
     <row r="112" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A7:F7"/>
@@ -7946,6 +7946,13 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8050,21 +8057,21 @@
       <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
@@ -9381,6 +9388,13 @@
     <row r="113" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="A7:F7"/>
@@ -9389,13 +9403,6 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9500,21 +9507,21 @@
       <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
@@ -10529,6 +10536,13 @@
     <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A7:F7"/>
@@ -10537,13 +10551,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -10558,10 +10565,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10654,21 +10661,21 @@
       <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="A6" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
@@ -10681,7 +10688,7 @@
       <c r="F7" s="134"/>
       <c r="G7" s="3"/>
       <c r="H7" s="135" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I7" s="135"/>
       <c r="J7" s="135"/>
@@ -10726,7 +10733,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -10764,12 +10771,12 @@
         <v>0.9</v>
       </c>
       <c r="F10" s="78">
-        <f>6.5/3.281</f>
-        <v>1.9811033221578787</v>
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
       </c>
       <c r="G10" s="79">
         <f>PRODUCT(C10:F10)</f>
-        <v>16.046936909478816</v>
+        <v>12.343797622676012</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
@@ -10794,7 +10801,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="34">
         <f>SUM(G10:G10)</f>
-        <v>16.046936909478816</v>
+        <v>12.343797622676012</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>49</v>
@@ -10804,7 +10811,7 @@
       </c>
       <c r="J11" s="81">
         <f>G11*I11</f>
-        <v>1037.1135324596157</v>
+        <v>797.77964035355058</v>
       </c>
       <c r="K11" s="32"/>
       <c r="M11" s="36"/>
@@ -10829,7 +10836,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="81">
         <f>0.13*G11*19284/360</f>
-        <v>111.74551965864066</v>
+        <v>85.958092045108202</v>
       </c>
       <c r="K12" s="32"/>
       <c r="M12" s="36"/>
@@ -10889,7 +10896,7 @@
       <c r="B15" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="138">
         <v>0.5</v>
       </c>
       <c r="D15" s="78">
@@ -10902,11 +10909,11 @@
       </c>
       <c r="F15" s="78">
         <f>F10/2</f>
-        <v>0.99055166107893933</v>
+        <v>0.76196281621456874</v>
       </c>
       <c r="G15" s="79">
         <f>PRODUCT(C15:F15)</f>
-        <v>2.005867113684852</v>
+        <v>1.5429747028345016</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="80"/>
@@ -10931,7 +10938,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="34">
         <f>SUM(G15:G15)</f>
-        <v>2.005867113684852</v>
+        <v>1.5429747028345016</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>49</v>
@@ -10941,7 +10948,7 @@
       </c>
       <c r="J16" s="81">
         <f>G16*I16</f>
-        <v>810.93195672051195</v>
+        <v>623.79381286193222</v>
       </c>
       <c r="K16" s="32"/>
       <c r="M16" s="36"/>
@@ -11151,51 +11158,67 @@
       <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="53">
-        <f>SUM(G24:G24)</f>
-        <v>0.60749999999999993</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="53">
-        <v>10634.5</v>
-      </c>
-      <c r="J25" s="84">
-        <f>G25*I25</f>
-        <v>6460.4587499999989</v>
-      </c>
-      <c r="K25" s="76"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="76">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78">
+        <f>D24</f>
+        <v>9</v>
+      </c>
+      <c r="E25" s="78">
+        <v>0.45</v>
+      </c>
+      <c r="F25" s="78">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="79">
+        <f>PRODUCT(C25:F25)</f>
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="32"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="80"/>
       <c r="B26" s="77" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C26" s="82"/>
       <c r="D26" s="83"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="85">
-        <f>0.13*G25*((114907.3+6135.3)/15)</f>
-        <v>637.28928899999994</v>
+      <c r="G26" s="53">
+        <f>SUM(G24:G25)</f>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="53">
+        <v>10634.5</v>
+      </c>
+      <c r="J26" s="84">
+        <f>G26*I26</f>
+        <v>8613.9449999999997</v>
       </c>
       <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="80"/>
-      <c r="B27" s="77"/>
+      <c r="B27" s="77" t="s">
+        <v>44</v>
+      </c>
       <c r="C27" s="82"/>
       <c r="D27" s="83"/>
       <c r="E27" s="83"/>
@@ -11203,108 +11226,108 @@
       <c r="G27" s="83"/>
       <c r="H27" s="83"/>
       <c r="I27" s="83"/>
-      <c r="J27" s="85"/>
+      <c r="J27" s="85">
+        <f>0.13*G26*((114907.3+6135.3)/15)</f>
+        <v>849.71905199999992</v>
+      </c>
       <c r="K27" s="76"/>
     </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="107">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="80"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="76"/>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="107">
         <v>5</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B29" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="77" t="s">
+      <c r="C29" s="108"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C30" s="76">
         <v>1</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D30" s="78">
         <f>D10</f>
         <v>9</v>
       </c>
-      <c r="E29" s="78">
-        <f>((F29/2+0.45)/2)</f>
+      <c r="E30" s="78">
+        <f>((F30/2+0.45)/2)</f>
         <v>0.72789545870161532</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F30" s="78">
         <f>6.6/3.281</f>
         <v>2.0115818348064614</v>
       </c>
-      <c r="G29" s="79">
-        <f>PRODUCT(C29:F29)</f>
+      <c r="G30" s="79">
+        <f>PRODUCT(C30:F30)</f>
         <v>13.177991541260576</v>
       </c>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="32"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
-      <c r="B30" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="53">
-        <f>SUM(G29:G29)</f>
-        <v>13.177991541260576</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="53">
-        <v>9709.43</v>
-      </c>
-      <c r="J30" s="84">
-        <f>G30*I30</f>
-        <v>127950.78641046167</v>
-      </c>
-      <c r="K30" s="76"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="32"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="80"/>
       <c r="B31" s="77" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="83"/>
       <c r="E31" s="83"/>
       <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="85">
-        <f>0.13*G30*((27092.1)/5)</f>
-        <v>9282.5060805096273</v>
+      <c r="G31" s="53">
+        <f>SUM(G30:G30)</f>
+        <v>13.177991541260576</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="53">
+        <v>9709.43</v>
+      </c>
+      <c r="J31" s="84">
+        <f>G31*I31</f>
+        <v>127950.78641046167</v>
       </c>
       <c r="K31" s="76"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="80"/>
-      <c r="B32" s="77"/>
+      <c r="B32" s="77" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" s="82"/>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
@@ -11312,16 +11335,15 @@
       <c r="G32" s="83"/>
       <c r="H32" s="83"/>
       <c r="I32" s="83"/>
-      <c r="J32" s="85"/>
+      <c r="J32" s="85">
+        <f>0.13*G31*((27092.1)/5)</f>
+        <v>9282.5060805096273</v>
+      </c>
       <c r="K32" s="76"/>
     </row>
-    <row r="33" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80">
-        <v>6</v>
-      </c>
-      <c r="B33" s="109" t="s">
-        <v>99</v>
-      </c>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="80"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="82"/>
       <c r="D33" s="83"/>
       <c r="E33" s="83"/>
@@ -11332,25 +11354,18 @@
       <c r="J33" s="85"/>
       <c r="K33" s="76"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
-      <c r="B34" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="82">
-        <v>1</v>
-      </c>
-      <c r="D34" s="83">
-        <v>10</v>
-      </c>
-      <c r="E34" s="83">
-        <v>10</v>
-      </c>
+    <row r="34" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="80">
+        <v>6</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
       <c r="F34" s="83"/>
-      <c r="G34" s="79">
-        <f>PRODUCT(C34:F34)</f>
-        <v>100</v>
-      </c>
+      <c r="G34" s="83"/>
       <c r="H34" s="83"/>
       <c r="I34" s="83"/>
       <c r="J34" s="85"/>
@@ -11359,49 +11374,57 @@
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="80"/>
       <c r="B35" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
+        <v>97</v>
+      </c>
+      <c r="C35" s="82">
+        <v>1</v>
+      </c>
+      <c r="D35" s="83">
+        <v>8</v>
+      </c>
+      <c r="E35" s="83">
+        <v>5</v>
+      </c>
       <c r="F35" s="83"/>
-      <c r="G35" s="53">
-        <f>SUM(G34:G34)</f>
-        <v>100</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="53">
-        <v>1737.28</v>
-      </c>
-      <c r="J35" s="84">
-        <f>G35*I35</f>
-        <v>173728</v>
-      </c>
+      <c r="G35" s="79">
+        <f>PRODUCT(C35:F35)</f>
+        <v>40</v>
+      </c>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="85"/>
       <c r="K35" s="76"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="80"/>
       <c r="B36" s="77" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="83"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="85">
-        <f>0.13*G35*(6947.8/10)</f>
-        <v>9032.14</v>
+      <c r="G36" s="53">
+        <f>SUM(G35:G35)</f>
+        <v>40</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="53">
+        <v>1737.28</v>
+      </c>
+      <c r="J36" s="84">
+        <f>G36*I36</f>
+        <v>69491.199999999997</v>
       </c>
       <c r="K36" s="76"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="80"/>
-      <c r="B37" s="77"/>
+      <c r="B37" s="77" t="s">
+        <v>44</v>
+      </c>
       <c r="C37" s="82"/>
       <c r="D37" s="83"/>
       <c r="E37" s="83"/>
@@ -11409,141 +11432,136 @@
       <c r="G37" s="83"/>
       <c r="H37" s="83"/>
       <c r="I37" s="83"/>
-      <c r="J37" s="85"/>
+      <c r="J37" s="85">
+        <f>0.13*G36*(6947.8/10)</f>
+        <v>3612.8559999999998</v>
+      </c>
       <c r="K37" s="76"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
+      <c r="A38" s="80"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="76"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29">
         <v>7</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C39" s="30">
         <v>1</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="59">
-        <f t="shared" ref="G38" si="0">PRODUCT(C38:F38)</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="34">
-        <v>500</v>
-      </c>
-      <c r="J38" s="59">
-        <f>G38*I38</f>
-        <v>500</v>
-      </c>
-      <c r="K38" s="32"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="30"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="81"/>
+      <c r="G39" s="59">
+        <f t="shared" ref="G39" si="0">PRODUCT(C39:F39)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="34">
+        <v>500</v>
+      </c>
+      <c r="J39" s="59">
+        <f>G39*I39</f>
+        <v>500</v>
+      </c>
       <c r="K39" s="32"/>
       <c r="M39" s="36"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="87" t="s">
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="32"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="80"/>
+      <c r="B41" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81">
-        <f>SUM(J10:J38)</f>
-        <v>335581.3781228101</v>
-      </c>
-      <c r="K40" s="76"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="98"/>
-    </row>
-    <row r="42" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
-      <c r="B42" s="40" t="s">
+      <c r="C41" s="88"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81">
+        <f>SUM(J10:J39)</f>
+        <v>227838.95067223188</v>
+      </c>
+      <c r="K41" s="76"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="102"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="98"/>
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="91"/>
+      <c r="B43" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="136">
-        <f>J40</f>
-        <v>335581.3781228101</v>
-      </c>
-      <c r="D42" s="136"/>
-      <c r="E42" s="79">
+      <c r="C43" s="136">
+        <f>J41</f>
+        <v>227838.95067223188</v>
+      </c>
+      <c r="D43" s="136"/>
+      <c r="E43" s="79">
         <v>100</v>
       </c>
-      <c r="F42" s="92"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="96"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="97"/>
-      <c r="B43" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="137">
-        <v>300000</v>
-      </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="90"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="96"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="97"/>
       <c r="B44" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="137">
-        <f>C43-C46-C47</f>
-        <v>285000</v>
+        <v>200000</v>
       </c>
       <c r="D44" s="137"/>
-      <c r="E44" s="79">
-        <f>C44/C42*100</f>
-        <v>84.927239286710588</v>
-      </c>
+      <c r="E44" s="79"/>
       <c r="F44" s="90"/>
       <c r="G44" s="89"/>
       <c r="H44" s="89"/>
@@ -11554,16 +11572,16 @@
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="97"/>
       <c r="B45" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="136">
-        <f>C42-C44</f>
-        <v>50581.3781228101</v>
-      </c>
-      <c r="D45" s="136"/>
+        <v>36</v>
+      </c>
+      <c r="C45" s="137">
+        <f>C44-C47-C48</f>
+        <v>190000</v>
+      </c>
+      <c r="D45" s="137"/>
       <c r="E45" s="79">
-        <f>100-E44</f>
-        <v>15.072760713289412</v>
+        <f>C45/C43*100</f>
+        <v>83.392237999433718</v>
       </c>
       <c r="F45" s="90"/>
       <c r="G45" s="89"/>
@@ -11575,15 +11593,16 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="97"/>
       <c r="B46" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="136">
-        <f>C43*0.03</f>
-        <v>9000</v>
+        <f>C43-C45</f>
+        <v>37838.950672231877</v>
       </c>
       <c r="D46" s="136"/>
       <c r="E46" s="79">
-        <v>3</v>
+        <f>100-E45</f>
+        <v>16.607762000566282</v>
       </c>
       <c r="F46" s="90"/>
       <c r="G46" s="89"/>
@@ -11595,15 +11614,15 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="97"/>
       <c r="B47" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="136">
-        <f>C43*0.02</f>
+        <f>C44*0.03</f>
         <v>6000</v>
       </c>
       <c r="D47" s="136"/>
       <c r="E47" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="90"/>
       <c r="G47" s="89"/>
@@ -11612,35 +11631,54 @@
       <c r="J47" s="89"/>
       <c r="K47" s="90"/>
     </row>
-    <row r="48" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-    </row>
-    <row r="49" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="97"/>
+      <c r="B48" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="136">
+        <f>C44*0.02</f>
+        <v>4000</v>
+      </c>
+      <c r="D48" s="136"/>
+      <c r="E48" s="79">
+        <v>2</v>
+      </c>
+      <c r="F48" s="90"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="90"/>
+    </row>
+    <row r="49" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+    </row>
+    <row r="50" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="65" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="67" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -11681,31 +11719,32 @@
     <row r="102" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="103" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="104" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
   </headerFooter>
 </worksheet>
 </file>